--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -70,12 +73,12 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>beautifully</t>
   </si>
   <si>
@@ -85,79 +88,97 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>apples</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>fun</t>
   </si>
   <si>
     <t>mas</t>
@@ -166,223 +187,205 @@
     <t>rice</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>handy</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>dough</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>dough</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>cook</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>durable</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>maker</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>hot</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>like</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>really</t>
@@ -394,9 +397,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -772,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,16 +857,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -883,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>0.956989247311828</v>
@@ -933,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.475</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,37 +986,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2790697674418605</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>36</v>
       </c>
-      <c r="D6">
-        <v>36</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>93</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.217948717948718</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -1083,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1717171717171717</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -1101,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8637770897832817</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L8">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M8">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1135135135135135</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0.85</v>
@@ -1179,17 +1182,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>166</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8043478260869565</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1232,16 +1259,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7727272727272727</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7532467532467533</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L15">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L17">
         <v>30</v>
       </c>
-      <c r="K17">
-        <v>0.6576271186440678</v>
-      </c>
-      <c r="L17">
-        <v>194</v>
-      </c>
       <c r="M17">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6461538461538462</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6420545746388443</v>
+        <v>0.640625</v>
       </c>
       <c r="L21">
-        <v>800</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>800</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>446</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6228571428571429</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,15 +1592,15 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
         <v>42</v>
@@ -1591,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1617,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6122448979591837</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6041666666666666</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5964912280701754</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5925925925925926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5833333333333334</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1799,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5151515151515151</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5098039215686274</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1877,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5076923076923077</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1903,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5029940119760479</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L38">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1929,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.4939759036144578</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1955,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4615384615384616</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1981,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4567901234567901</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2007,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.45</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2033,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4473684210526316</v>
+        <v>0.45</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2059,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4444444444444444</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2085,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.4360902255639098</v>
+      </c>
+      <c r="L45">
         <v>58</v>
       </c>
-      <c r="K45">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L45">
-        <v>28</v>
-      </c>
       <c r="M45">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2111,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4426229508196721</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2137,12 +2164,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47">
         <v>0.43</v>
@@ -2168,16 +2195,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L48">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2189,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4210526315789473</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2215,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4102564102564102</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2241,21 +2268,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4081632653061225</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2267,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52">
+        <v>0.3915662650602409</v>
+      </c>
+      <c r="L52">
         <v>65</v>
       </c>
-      <c r="K52">
-        <v>0.3902439024390244</v>
-      </c>
-      <c r="L52">
-        <v>16</v>
-      </c>
       <c r="M52">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2293,12 +2320,12 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K53">
         <v>0.3870967741935484</v>
@@ -2324,16 +2351,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.3855421686746988</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L54">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2345,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>102</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.375</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2371,21 +2398,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3533834586466165</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2397,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3492063492063492</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2423,15 +2450,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3488372093023256</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -2449,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3431372549019608</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L59">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2475,21 +2502,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>268</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3421052631578947</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2501,21 +2528,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3346303501945525</v>
+        <v>0.2945205479452055</v>
       </c>
       <c r="L61">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M61">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2527,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>171</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3333333333333333</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2553,21 +2580,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3272727272727273</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2579,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3191489361702128</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2605,21 +2632,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.297029702970297</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2631,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.2949640287769784</v>
+        <v>0.25</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2657,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.2794117647058824</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2683,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>49</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.2685185185185185</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L68">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="M68">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2709,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>79</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.2684931506849315</v>
+        <v>0.234375</v>
       </c>
       <c r="L69">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2735,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>534</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2516556291390729</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2761,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2432432432432433</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2787,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2352941176470588</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M72">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2813,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>65</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2346609257265877</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L73">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2839,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>711</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2296650717703349</v>
+        <v>0.2</v>
       </c>
       <c r="L74">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2865,15 +2892,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>161</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2282608695652174</v>
+        <v>0.2</v>
       </c>
       <c r="L75">
         <v>21</v>
@@ -2891,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2272727272727273</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2917,21 +2944,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2222222222222222</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2943,21 +2970,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2222222222222222</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2969,21 +2996,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.219047619047619</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2995,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.2163009404388715</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L80">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3021,21 +3048,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>250</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2142857142857143</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3047,21 +3074,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3073,21 +3100,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>0.1981981981981982</v>
+        <v>0.1668874172185431</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M83">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3099,21 +3126,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>89</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K84">
-        <v>0.1834862385321101</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3125,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>0.1812080536912752</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="L85">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M85">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3151,21 +3178,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>122</v>
+        <v>656</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K86">
-        <v>0.1721311475409836</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L86">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3177,21 +3204,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1708609271523179</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L87">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M87">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3203,21 +3230,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>626</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1624040920716112</v>
+        <v>0.15</v>
       </c>
       <c r="L88">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3229,21 +3256,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>655</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1615384615384615</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M89">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3255,47 +3282,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1607142857142857</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>94</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K91">
-        <v>0.134020618556701</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L91">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3307,47 +3334,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>252</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1282051282051282</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L92">
         <v>15</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1280487804878049</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3364,16 +3391,16 @@
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1272727272727273</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L94">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M94">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3385,47 +3412,47 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1243243243243243</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L95">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M95">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N95">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1242937853107345</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3437,21 +3464,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K97">
-        <v>0.121654501216545</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M97">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3463,21 +3490,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>361</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1165644171779141</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3489,21 +3516,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1162790697674419</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L99">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3515,21 +3542,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>114</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1153846153846154</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L100">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3541,21 +3568,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>138</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1113636363636364</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L101">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3567,21 +3594,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>391</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1083743842364532</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L102">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3593,21 +3620,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K103">
-        <v>0.0996309963099631</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="L103">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3619,21 +3646,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>244</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K104">
-        <v>0.08771929824561403</v>
+        <v>0.07675438596491228</v>
       </c>
       <c r="L104">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M104">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3645,47 +3672,47 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K105">
-        <v>0.08403361344537816</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L105">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M105">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>218</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K106">
-        <v>0.07692307692307693</v>
+        <v>0.06921241050119331</v>
       </c>
       <c r="L106">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M106">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3697,21 +3724,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>192</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K107">
-        <v>0.07637231503579953</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L107">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M107">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3723,47 +3750,47 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K108">
-        <v>0.07460545193687231</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L108">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M108">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N108">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>645</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K109">
-        <v>0.07037037037037037</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M109">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3775,21 +3802,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K110">
-        <v>0.06830601092896176</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="L110">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3801,21 +3828,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K111">
-        <v>0.05975723622782447</v>
+        <v>0.05135387488328665</v>
       </c>
       <c r="L111">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M111">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N111">
         <v>0.98</v>
@@ -3827,21 +3854,21 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>1007</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K112">
-        <v>0.04981549815498155</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L112">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M112">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3853,111 +3880,111 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K113">
-        <v>0.04568527918781726</v>
+        <v>0.03838771593090211</v>
       </c>
       <c r="L113">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M113">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>376</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K114">
-        <v>0.04230769230769231</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="L114">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M114">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N114">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>498</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K115">
-        <v>0.04116222760290557</v>
+        <v>0.02854671280276817</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M115">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N115">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O115">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>396</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K116">
-        <v>0.03284356093344858</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="L116">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M116">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>1119</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
